--- a/Config/ExcelTools/Languages.xlsx
+++ b/Config/ExcelTools/Languages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24228" windowHeight="12815"/>
+    <workbookView windowWidth="18468" windowHeight="9467"/>
   </bookViews>
   <sheets>
     <sheet name="Languages" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>索引</t>
   </si>
@@ -42,28 +42,34 @@
     <t>EN</t>
   </si>
   <si>
-    <t>新游戏</t>
-  </si>
-  <si>
-    <t>New Games</t>
-  </si>
-  <si>
-    <t>继续游戏</t>
+    <t>开始游戏</t>
+  </si>
+  <si>
+    <t>Start Game</t>
+  </si>
+  <si>
+    <t>继续</t>
   </si>
   <si>
     <t>Continue</t>
   </si>
   <si>
-    <t>选项</t>
-  </si>
-  <si>
-    <t>Option</t>
-  </si>
-  <si>
-    <t>结束</t>
-  </si>
-  <si>
-    <t>End</t>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>退出游戏</t>
+  </si>
+  <si>
+    <t>Exit Game</t>
+  </si>
+  <si>
+    <t>版本号</t>
+  </si>
+  <si>
+    <t>Version Number</t>
   </si>
   <si>
     <t>全屏</t>
@@ -75,7 +81,7 @@
     <t>分辨率</t>
   </si>
   <si>
-    <t>Resolution Ratio</t>
+    <t>Screen Resolution</t>
   </si>
   <si>
     <t>语言</t>
@@ -84,9 +90,6 @@
     <t>Language</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>背景音乐</t>
   </si>
   <si>
@@ -96,10 +99,10 @@
     <t>背景音乐音量</t>
   </si>
   <si>
-    <t>BGM Volume</t>
-  </si>
-  <si>
-    <t>声音</t>
+    <t>BGMVolume</t>
+  </si>
+  <si>
+    <t>声音特效</t>
   </si>
   <si>
     <t>Sound</t>
@@ -109,6 +112,18 @@
   </si>
   <si>
     <t>Sound Volume</t>
+  </si>
+  <si>
+    <t>开启</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>OFF</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1097,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5092592592593" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1144,10 +1159,10 @@
       <c r="A5" s="1">
         <v>100002</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1166,7 +1181,7 @@
       <c r="A7" s="1">
         <v>100004</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1177,21 +1192,21 @@
       <c r="A8" s="1">
         <v>100005</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" customFormat="1" spans="1:3">
       <c r="A9" s="1">
         <v>100006</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1202,7 +1217,7 @@
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1210,11 +1225,11 @@
       <c r="A11" s="1">
         <v>100008</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1222,10 +1237,10 @@
         <v>100009</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
         <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1233,10 +1248,10 @@
         <v>100010</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
         <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1244,10 +1259,10 @@
         <v>100011</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
         <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1255,10 +1270,32 @@
         <v>100012</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
         <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>100013</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>100014</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
